--- a/03.var_calling/variant_stats/raw/all/raw_stats_summary.xlsx
+++ b/03.var_calling/variant_stats/raw/all/raw_stats_summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uflorida-my.sharepoint.com/personal/kasey_pham_ufl_edu/Documents/Grad School Documents/Projects/eucalyptus-hybrid-resequencing/03.var_calling/variant_stats/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uflorida-my.sharepoint.com/personal/kasey_pham_ufl_edu/Documents/Grad School Documents/Projects/eucalyptus-hybrid-resequencing/03.var_calling/variant_stats/raw/all/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="95" documentId="11_F25DC773A252ABDACC1048CC295F61E45BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D275ED7B-37E6-46FE-882E-17A0B722F44D}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="11_F25DC773A252ABDACC1048CC295F61E45BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FC4E3F8-829C-4444-8D29-C5C9977B68FD}"/>
   <bookViews>
-    <workbookView xWindow="-22395" yWindow="-9030" windowWidth="21600" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-13215" yWindow="-6795" windowWidth="13035" windowHeight="10725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,9 +50,6 @@
     <t>num indels</t>
   </si>
   <si>
-    <t>num multiallelic SNPs</t>
-  </si>
-  <si>
     <t>chromosome</t>
   </si>
   <si>
@@ -93,6 +90,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>num MNPs</t>
   </si>
 </sst>
 </file>
@@ -171,12 +171,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -462,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -478,7 +477,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -493,270 +492,270 @@
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="5">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4">
         <v>42216130</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>37796117</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>4195053</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>224960</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>235161</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4">
         <v>50846879</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>44761809</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>5800279</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>284791</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>389887</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="5">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4">
         <v>65532689</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>56378769</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>8798562</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>355358</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>674101</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4">
         <v>38602394</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>34282741</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>4113213</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>206440</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>258078</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="5">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4">
         <v>62844326</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>54004285</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>8492287</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>347754</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>640031</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="5">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4">
         <v>52152135</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>46926446</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>4958362</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>267327</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>298642</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="5">
+        <v>11</v>
+      </c>
+      <c r="B8" s="4">
         <v>54275269</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>47309853</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>6665435</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>299981</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>483388</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="5">
+        <v>12</v>
+      </c>
+      <c r="B9" s="4">
         <v>70064823</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>61428049</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>8259671</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>377103</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>570719</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="5">
+        <v>13</v>
+      </c>
+      <c r="B10" s="4">
         <v>38295571</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>34179925</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>3913780</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>201866</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>232336</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="5">
+        <v>14</v>
+      </c>
+      <c r="B11" s="4">
         <v>38679970</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>34732075</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>3749603</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>198292</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>211825</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="5">
+        <v>15</v>
+      </c>
+      <c r="B12" s="4">
         <v>42112452</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>37817745</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>4071535</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>223172</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>231655</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="5">
+        <v>44879592</v>
+      </c>
+      <c r="C13" s="5">
+        <v>40463121</v>
+      </c>
+      <c r="D13" s="5">
+        <v>4239178</v>
+      </c>
+      <c r="E13" s="5">
+        <v>177293</v>
+      </c>
+      <c r="F13" s="5">
+        <v>310716</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="6">
-        <v>44879592</v>
-      </c>
-      <c r="C13" s="6">
-        <v>40463121</v>
-      </c>
-      <c r="D13" s="6">
-        <v>4239178</v>
-      </c>
-      <c r="E13" s="6">
-        <v>177293</v>
-      </c>
-      <c r="F13" s="6">
-        <v>310716</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <f>SUM(B2:B13)</f>
         <v>600502230</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <f t="shared" ref="C14:F14" si="0">SUM(C2:C13)</f>
         <v>530080935</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <f t="shared" si="0"/>
         <v>67256958</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="6">
         <f t="shared" si="0"/>
         <v>3164337</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <f t="shared" si="0"/>
         <v>4536539</v>
       </c>

--- a/03.var_calling/variant_stats/raw/all/raw_stats_summary.xlsx
+++ b/03.var_calling/variant_stats/raw/all/raw_stats_summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uflorida-my.sharepoint.com/personal/kasey_pham_ufl_edu/Documents/Grad School Documents/Projects/eucalyptus-hybrid-resequencing/03.var_calling/variant_stats/raw/all/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="96" documentId="11_F25DC773A252ABDACC1048CC295F61E45BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FC4E3F8-829C-4444-8D29-C5C9977B68FD}"/>
+  <xr:revisionPtr revIDLastSave="162" documentId="11_F25DC773A252ABDACC1048CC295F61E45BDE58E6" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FE6D85A-5275-4665-9A53-507FE9CECECC}"/>
   <bookViews>
-    <workbookView xWindow="-13215" yWindow="-6795" windowWidth="13035" windowHeight="10725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21645" yWindow="-4680" windowWidth="21465" windowHeight="14310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,9 +26,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -459,23 +456,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -495,270 +493,271 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="4">
-        <v>42216130</v>
+        <v>42182701</v>
       </c>
       <c r="C2" s="4">
-        <v>37796117</v>
+        <v>38296123</v>
       </c>
       <c r="D2" s="4">
-        <v>4195053</v>
+        <v>3680587</v>
       </c>
       <c r="E2" s="4">
-        <v>224960</v>
+        <v>205991</v>
       </c>
       <c r="F2" s="4">
-        <v>235161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>196688</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4">
-        <v>50846879</v>
+        <v>50800969</v>
       </c>
       <c r="C3" s="4">
-        <v>44761809</v>
+        <v>45290257</v>
       </c>
       <c r="D3" s="4">
-        <v>5800279</v>
+        <v>5245612</v>
       </c>
       <c r="E3" s="4">
-        <v>284791</v>
+        <v>265100</v>
       </c>
       <c r="F3" s="4">
-        <v>389887</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>340815</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="4">
-        <v>65532689</v>
+        <v>65471562</v>
       </c>
       <c r="C4" s="4">
-        <v>56378769</v>
+        <v>57036830</v>
       </c>
       <c r="D4" s="4">
-        <v>8798562</v>
+        <v>8101887</v>
       </c>
       <c r="E4" s="4">
-        <v>355358</v>
+        <v>332845</v>
       </c>
       <c r="F4" s="4">
-        <v>674101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>599681</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="4">
-        <v>38602394</v>
+        <v>38565429</v>
       </c>
       <c r="C5" s="4">
-        <v>34282741</v>
+        <v>34709943</v>
       </c>
       <c r="D5" s="4">
-        <v>4113213</v>
+        <v>3665898</v>
       </c>
       <c r="E5" s="4">
-        <v>206440</v>
+        <v>189588</v>
       </c>
       <c r="F5" s="4">
-        <v>258078</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>221538</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="4">
-        <v>62844326</v>
+        <v>62774360</v>
       </c>
       <c r="C6" s="4">
-        <v>54004285</v>
+        <v>54627738</v>
       </c>
       <c r="D6" s="4">
-        <v>8492287</v>
+        <v>7818862</v>
       </c>
       <c r="E6" s="4">
-        <v>347754</v>
+        <v>327760</v>
       </c>
       <c r="F6" s="4">
-        <v>640031</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>566817</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="4">
-        <v>52152135</v>
+        <v>52110670</v>
       </c>
       <c r="C7" s="4">
-        <v>46926446</v>
+        <v>47482380</v>
       </c>
       <c r="D7" s="4">
-        <v>4958362</v>
+        <v>4383422</v>
       </c>
       <c r="E7" s="4">
-        <v>267327</v>
+        <v>244868</v>
       </c>
       <c r="F7" s="4">
-        <v>298642</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>255213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="4">
-        <v>54275269</v>
+        <v>54231564</v>
       </c>
       <c r="C8" s="4">
-        <v>47309853</v>
+        <v>47839105</v>
       </c>
       <c r="D8" s="4">
-        <v>6665435</v>
+        <v>6109944</v>
       </c>
       <c r="E8" s="4">
-        <v>299981</v>
+        <v>282515</v>
       </c>
       <c r="F8" s="4">
-        <v>483388</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>428914</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="4">
-        <v>70064823</v>
+        <v>69990148</v>
       </c>
       <c r="C9" s="4">
-        <v>61428049</v>
+        <v>62168931</v>
       </c>
       <c r="D9" s="4">
-        <v>8259671</v>
+        <v>7470265</v>
       </c>
       <c r="E9" s="4">
-        <v>377103</v>
+        <v>350952</v>
       </c>
       <c r="F9" s="4">
-        <v>570719</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>498673</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="4">
-        <v>38295571</v>
+        <v>38263906</v>
       </c>
       <c r="C10" s="4">
-        <v>34179925</v>
+        <v>34621966</v>
       </c>
       <c r="D10" s="4">
-        <v>3913780</v>
+        <v>3456229</v>
       </c>
       <c r="E10" s="4">
-        <v>201866</v>
+        <v>185711</v>
       </c>
       <c r="F10" s="4">
-        <v>232336</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>195853</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="4">
-        <v>38679970</v>
+        <v>38637325</v>
       </c>
       <c r="C11" s="4">
-        <v>34732075</v>
+        <v>35170964</v>
       </c>
       <c r="D11" s="4">
-        <v>3749603</v>
+        <v>3285192</v>
       </c>
       <c r="E11" s="4">
-        <v>198292</v>
+        <v>181169</v>
       </c>
       <c r="F11" s="4">
-        <v>211825</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>176600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="4">
-        <v>42112452</v>
+        <v>42080253</v>
       </c>
       <c r="C12" s="4">
-        <v>37817745</v>
+        <v>38270770</v>
       </c>
       <c r="D12" s="4">
-        <v>4071535</v>
+        <v>3604377</v>
       </c>
       <c r="E12" s="4">
-        <v>223172</v>
+        <v>205106</v>
       </c>
       <c r="F12" s="4">
-        <v>231655</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>195552</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="5">
-        <v>44879592</v>
+        <v>44791036</v>
       </c>
       <c r="C13" s="5">
-        <v>40463121</v>
+        <v>40699793</v>
       </c>
       <c r="D13" s="5">
-        <v>4239178</v>
+        <v>3924183</v>
       </c>
       <c r="E13" s="5">
-        <v>177293</v>
+        <v>167060</v>
       </c>
       <c r="F13" s="5">
-        <v>310716</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>279506</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="6">
         <f>SUM(B2:B13)</f>
-        <v>600502230</v>
+        <v>599899923</v>
       </c>
       <c r="C14" s="6">
         <f t="shared" ref="C14:F14" si="0">SUM(C2:C13)</f>
-        <v>530080935</v>
+        <v>536214800</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="0"/>
-        <v>67256958</v>
+        <v>60746458</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" si="0"/>
-        <v>3164337</v>
+        <v>2938665</v>
       </c>
       <c r="F14" s="6">
         <f t="shared" si="0"/>
-        <v>4536539</v>
-      </c>
+        <v>3955850</v>
+      </c>
+      <c r="G14" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
